--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Dokumen\Desktop\Barcode_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6086CA-29D5-4EB9-8936-1A2FA2BD9CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4136E596-1F7D-411D-BE55-703B15AE2585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FEA72B4E-1F15-4864-B248-88DECE3B0F8D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="145">
   <si>
     <t>Barcode</t>
   </si>
@@ -42,15 +42,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RollNo</t>
-  </si>
-  <si>
-    <t>vamshi</t>
-  </si>
-  <si>
-    <t>chintu model</t>
-  </si>
-  <si>
     <t>23H51A05CP</t>
   </si>
   <si>
@@ -78,45 +69,15 @@
     <t>23H51A05CE</t>
   </si>
   <si>
-    <t>SAHITHI</t>
-  </si>
-  <si>
-    <t>AKSHITHA</t>
-  </si>
-  <si>
-    <t>AARYAN</t>
-  </si>
-  <si>
-    <t>CHAITHU</t>
-  </si>
-  <si>
-    <t>VARSHITH</t>
-  </si>
-  <si>
-    <t>DURGA</t>
-  </si>
-  <si>
-    <t>DGP</t>
-  </si>
-  <si>
-    <t>KIRAN</t>
-  </si>
-  <si>
     <t>23H51A05AD</t>
   </si>
   <si>
-    <t>SUMANTH</t>
-  </si>
-  <si>
     <t>23H51A05AC</t>
   </si>
   <si>
     <t>23H51A0571</t>
   </si>
   <si>
-    <t>RITHVIK SAI</t>
-  </si>
-  <si>
     <t>23H51A0517</t>
   </si>
   <si>
@@ -145,16 +106,385 @@
   </si>
   <si>
     <t>23H51A0567</t>
+  </si>
+  <si>
+    <t>Gone Vamshi</t>
+  </si>
+  <si>
+    <t>R.Akshitha</t>
+  </si>
+  <si>
+    <t>CH.Sahithi</t>
+  </si>
+  <si>
+    <t>Aaryan</t>
+  </si>
+  <si>
+    <t>Chaitanya</t>
+  </si>
+  <si>
+    <t>Durga Prasad</t>
+  </si>
+  <si>
+    <t>Mahendra</t>
+  </si>
+  <si>
+    <t>23H51A05T6</t>
+  </si>
+  <si>
+    <t>M.Abhilash Reddy</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Sumanth</t>
+  </si>
+  <si>
+    <t>Rithwik Sai</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>Manohar</t>
+  </si>
+  <si>
+    <t>Nandhini</t>
+  </si>
+  <si>
+    <t>Sahithi</t>
+  </si>
+  <si>
+    <t>Eshwar</t>
+  </si>
+  <si>
+    <t>Varshitha</t>
+  </si>
+  <si>
+    <t>Sameer</t>
+  </si>
+  <si>
+    <t>Ashmith</t>
+  </si>
+  <si>
+    <t>Malliswari</t>
+  </si>
+  <si>
+    <t>Rithwik Kumar</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>23H51A0580</t>
+  </si>
+  <si>
+    <t>B.Varshith</t>
+  </si>
+  <si>
+    <t>CH.Varshith Kumar</t>
+  </si>
+  <si>
+    <t>23H51A0592</t>
+  </si>
+  <si>
+    <t>Anirudh Sai</t>
+  </si>
+  <si>
+    <t>23H51A05A9</t>
+  </si>
+  <si>
+    <t>Narendra</t>
+  </si>
+  <si>
+    <t>23H51A05AA</t>
+  </si>
+  <si>
+    <t>Sravya</t>
+  </si>
+  <si>
+    <t>Allendra</t>
+  </si>
+  <si>
+    <t>23H51A05AJ</t>
+  </si>
+  <si>
+    <t>23H51A05AF</t>
+  </si>
+  <si>
+    <t>P.Shivani</t>
+  </si>
+  <si>
+    <t>23H51A05BW</t>
+  </si>
+  <si>
+    <t>Aashish</t>
+  </si>
+  <si>
+    <t>23H51A05C1</t>
+  </si>
+  <si>
+    <t>T.Venkatesh</t>
+  </si>
+  <si>
+    <t>23H51A05C9</t>
+  </si>
+  <si>
+    <t>Y.Ruchir</t>
+  </si>
+  <si>
+    <t>23H51A05D3</t>
+  </si>
+  <si>
+    <t>Ankur</t>
+  </si>
+  <si>
+    <t>23H51A05D4</t>
+  </si>
+  <si>
+    <t>A.Tejaswini</t>
+  </si>
+  <si>
+    <t>23H51A05DW</t>
+  </si>
+  <si>
+    <t>P.Jahnavi</t>
+  </si>
+  <si>
+    <t>23H51A05E5</t>
+  </si>
+  <si>
+    <t>Srihitha</t>
+  </si>
+  <si>
+    <t>23H51A05E9</t>
+  </si>
+  <si>
+    <t>Akshaya</t>
+  </si>
+  <si>
+    <t>23H51A05EA</t>
+  </si>
+  <si>
+    <t>Soumya</t>
+  </si>
+  <si>
+    <t>23H51A05EB</t>
+  </si>
+  <si>
+    <t>Rishith</t>
+  </si>
+  <si>
+    <t>23H51A05EC</t>
+  </si>
+  <si>
+    <t>Sri Vathsav</t>
+  </si>
+  <si>
+    <t>23H51A05F4</t>
+  </si>
+  <si>
+    <t>G.Lakshmi Narasimha</t>
+  </si>
+  <si>
+    <t>23H51A05FK</t>
+  </si>
+  <si>
+    <t>J.Akshitha</t>
+  </si>
+  <si>
+    <t>24H51A05G7</t>
+  </si>
+  <si>
+    <t>M.Tejasri</t>
+  </si>
+  <si>
+    <t>Mushraf Ali</t>
+  </si>
+  <si>
+    <t>23H51A05GH</t>
+  </si>
+  <si>
+    <t>23H51A05H4</t>
+  </si>
+  <si>
+    <t>P.Mahesh</t>
+  </si>
+  <si>
+    <t>23H51A05HA</t>
+  </si>
+  <si>
+    <t>Soma Gourav</t>
+  </si>
+  <si>
+    <t>23H51A05HK</t>
+  </si>
+  <si>
+    <t>23H51A05HF</t>
+  </si>
+  <si>
+    <t>T.Veerendra</t>
+  </si>
+  <si>
+    <t>V.Siddhartha</t>
+  </si>
+  <si>
+    <t>23H51A05M6</t>
+  </si>
+  <si>
+    <t>Raphael Kevon</t>
+  </si>
+  <si>
+    <t>23H51A05N5</t>
+  </si>
+  <si>
+    <t>G.Renuka</t>
+  </si>
+  <si>
+    <t>23H51A05P1</t>
+  </si>
+  <si>
+    <t>K.Deepika</t>
+  </si>
+  <si>
+    <t>23H51A05P3</t>
+  </si>
+  <si>
+    <t>K.Ashwin</t>
+  </si>
+  <si>
+    <t>23H51A05P4</t>
+  </si>
+  <si>
+    <t>L.Akshaya</t>
+  </si>
+  <si>
+    <t>23H51A05Q4</t>
+  </si>
+  <si>
+    <t>M.Chandrija</t>
+  </si>
+  <si>
+    <t>23H51A05R0</t>
+  </si>
+  <si>
+    <t>Raghava</t>
+  </si>
+  <si>
+    <t>23H51A05R2</t>
+  </si>
+  <si>
+    <t>P.Haresswer</t>
+  </si>
+  <si>
+    <t>23H51A05R6</t>
+  </si>
+  <si>
+    <t>Samiksh Tutoo</t>
+  </si>
+  <si>
+    <t>23H51A05T2</t>
+  </si>
+  <si>
+    <t>T.SUHITH</t>
+  </si>
+  <si>
+    <t>23H51A05V5</t>
+  </si>
+  <si>
+    <t>B.Devaki</t>
+  </si>
+  <si>
+    <t>23H51A05W0</t>
+  </si>
+  <si>
+    <t>C.Samyuktha</t>
+  </si>
+  <si>
+    <t>23H51A05W3</t>
+  </si>
+  <si>
+    <t>D.Sridevi</t>
+  </si>
+  <si>
+    <t>23H51A05W9</t>
+  </si>
+  <si>
+    <t>K.Mallikarjun</t>
+  </si>
+  <si>
+    <t>23H51A05X5</t>
+  </si>
+  <si>
+    <t>K.Akhila</t>
+  </si>
+  <si>
+    <t>23H51A05Y1</t>
+  </si>
+  <si>
+    <t>K.Lakshmi Prasanna</t>
+  </si>
+  <si>
+    <t>23H51A05Y9</t>
+  </si>
+  <si>
+    <t>Umar Farooq</t>
+  </si>
+  <si>
+    <t>24H55A0536</t>
+  </si>
+  <si>
+    <t>P.Praveen</t>
+  </si>
+  <si>
+    <t>24H55A0537</t>
+  </si>
+  <si>
+    <t>P.Gnaneshwar</t>
+  </si>
+  <si>
+    <t>24H55A0538</t>
+  </si>
+  <si>
+    <t>R.Jeevan Kumar</t>
+  </si>
+  <si>
+    <t>24H51A0539</t>
+  </si>
+  <si>
+    <t>S.Srija</t>
+  </si>
+  <si>
+    <t>23H51A0540</t>
+  </si>
+  <si>
+    <t>S.Santhosh</t>
+  </si>
+  <si>
+    <t>23H51A0541</t>
+  </si>
+  <si>
+    <t>T.Madhuri</t>
+  </si>
+  <si>
+    <t>Roll No.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,16 +826,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56369348-8E6C-430A-BBC5-80C103F97F31}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -516,207 +847,792 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>